--- a/simulation_data/one_step_algorithm/1s_error_level_6_percent_water_20.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_6_percent_water_20.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.76286359494105</v>
+        <v>89.63222186424655</v>
       </c>
       <c r="D2" t="n">
-        <v>2.155337891857928</v>
+        <v>1.817800370095451</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.31102613008646</v>
+        <v>88.81993356231918</v>
       </c>
       <c r="D3" t="n">
-        <v>2.192851123167587</v>
+        <v>2.090378044127002</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.60041897583174</v>
+        <v>87.53541240921277</v>
       </c>
       <c r="D4" t="n">
-        <v>1.959407682201282</v>
+        <v>2.127158139203533</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>87.26916201864233</v>
+        <v>87.24500227101453</v>
       </c>
       <c r="D5" t="n">
-        <v>2.141351714577912</v>
+        <v>2.112617353344711</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.95035404025423</v>
+        <v>85.95243853939793</v>
       </c>
       <c r="D6" t="n">
-        <v>2.029163735904318</v>
+        <v>2.197951119719942</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.87730406544651</v>
+        <v>84.81411995077504</v>
       </c>
       <c r="D7" t="n">
-        <v>1.822348374456127</v>
+        <v>2.153641810452405</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.73865302664557</v>
+        <v>83.74903488798816</v>
       </c>
       <c r="D8" t="n">
-        <v>2.077556492913804</v>
+        <v>2.025243663335967</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.9763283858213</v>
+        <v>83.14457662549981</v>
       </c>
       <c r="D9" t="n">
-        <v>2.668927795076403</v>
+        <v>1.939116548332994</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.7058139964218</v>
+        <v>81.64196873886154</v>
       </c>
       <c r="D10" t="n">
-        <v>2.22941796553276</v>
+        <v>2.066964034333511</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>80.78427260590178</v>
+        <v>80.83283804061486</v>
       </c>
       <c r="D11" t="n">
-        <v>2.345591663209768</v>
+        <v>2.298777016194021</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.04753118302648</v>
+        <v>79.81239074174147</v>
       </c>
       <c r="D12" t="n">
-        <v>2.121477501312186</v>
+        <v>2.539244044846993</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.00965068578728</v>
+        <v>79.22746260935546</v>
       </c>
       <c r="D13" t="n">
-        <v>2.238327587843631</v>
+        <v>2.273567863808426</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.76168965430675</v>
+        <v>78.1240912813963</v>
       </c>
       <c r="D14" t="n">
-        <v>2.164029224161022</v>
+        <v>2.180443661703956</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.74484488024872</v>
+        <v>76.91708057997907</v>
       </c>
       <c r="D15" t="n">
-        <v>2.51463594729374</v>
+        <v>2.283651635534598</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.5807465959269</v>
+        <v>75.62270165152137</v>
       </c>
       <c r="D16" t="n">
-        <v>2.386690236285264</v>
+        <v>2.682474550339544</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.7634985821753</v>
+        <v>74.55625588233561</v>
       </c>
       <c r="D17" t="n">
-        <v>2.512862731253954</v>
+        <v>2.393811471350659</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.99128073226059</v>
+        <v>73.83162326688981</v>
       </c>
       <c r="D18" t="n">
-        <v>2.682112852536947</v>
+        <v>2.374713525589852</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.97557118854468</v>
+        <v>73.10572979325306</v>
       </c>
       <c r="D19" t="n">
-        <v>2.631135400862512</v>
+        <v>2.653387617127736</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.0742111697476</v>
+        <v>71.7191433923096</v>
       </c>
       <c r="D20" t="n">
-        <v>2.456217826356904</v>
+        <v>2.529125016782942</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.9868869748272</v>
+        <v>70.63413206817017</v>
       </c>
       <c r="D21" t="n">
-        <v>2.555906655686454</v>
+        <v>2.668560756574759</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>70.36746651321221</v>
+        <v>69.99869141397409</v>
       </c>
       <c r="D22" t="n">
-        <v>2.385547318422906</v>
+        <v>2.571751457860488</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.48348573030111</v>
+        <v>69.30309347374786</v>
       </c>
       <c r="D23" t="n">
-        <v>2.736251033391768</v>
+        <v>2.83405699104776</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.37243039639931</v>
+        <v>68.12554578855359</v>
       </c>
       <c r="D24" t="n">
-        <v>2.730543678797127</v>
+        <v>2.729425828339045</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>67.30681644649853</v>
+        <v>66.91197851217396</v>
       </c>
       <c r="D25" t="n">
-        <v>2.796584261510801</v>
+        <v>2.638984501081687</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.79694124712572</v>
+        <v>65.8252804669921</v>
       </c>
       <c r="D26" t="n">
-        <v>2.690551432659061</v>
+        <v>2.836113288091286</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.56930865999082</v>
+        <v>64.82895314940173</v>
       </c>
       <c r="D27" t="n">
-        <v>2.724560219492923</v>
+        <v>2.918978255358173</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.72802707580578</v>
+        <v>63.73707631126266</v>
       </c>
       <c r="D28" t="n">
-        <v>3.04883908172405</v>
+        <v>3.274226777110194</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.82262106951376</v>
+        <v>63.09792752846951</v>
       </c>
       <c r="D29" t="n">
-        <v>3.055403201542791</v>
+        <v>2.673774475962473</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.00807370477768</v>
+        <v>61.77682920895527</v>
       </c>
       <c r="D30" t="n">
-        <v>2.800134608886628</v>
+        <v>2.770058422935877</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.70485384148488</v>
+        <v>60.94657510800628</v>
       </c>
       <c r="D31" t="n">
-        <v>3.179035889665409</v>
+        <v>2.795395524975345</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.92830511673836</v>
+        <v>59.48037108974384</v>
       </c>
       <c r="D32" t="n">
-        <v>2.989910711678783</v>
+        <v>3.232174572134207</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.99560929725966</v>
+        <v>59.0115801845307</v>
       </c>
       <c r="D33" t="n">
-        <v>3.500044581895278</v>
+        <v>2.792785949648126</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.04118033210543</v>
+        <v>57.97541659775909</v>
       </c>
       <c r="D34" t="n">
-        <v>2.748440375104963</v>
+        <v>2.840243524033269</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.01991728680063</v>
+        <v>57.07324786599418</v>
       </c>
       <c r="D35" t="n">
-        <v>3.109316916482864</v>
+        <v>3.062713099336641</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.02826406836367</v>
+        <v>55.91701910912045</v>
       </c>
       <c r="D36" t="n">
-        <v>3.19037175772193</v>
+        <v>3.43862171962284</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.92471000367483</v>
+        <v>54.99249673854853</v>
       </c>
       <c r="D37" t="n">
-        <v>3.068034424647813</v>
+        <v>3.111045401211755</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.2977504929595</v>
+        <v>54.28535613279372</v>
       </c>
       <c r="D38" t="n">
-        <v>3.502220808325944</v>
+        <v>2.941804034847153</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.67057256234352</v>
+        <v>53.03139224444014</v>
       </c>
       <c r="D39" t="n">
-        <v>2.950864358356579</v>
+        <v>3.302517052950249</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.50060883595166</v>
+        <v>51.49458796515191</v>
       </c>
       <c r="D40" t="n">
-        <v>3.196571584197875</v>
+        <v>3.692008372583156</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.29960138538517</v>
+        <v>51.18399394924782</v>
       </c>
       <c r="D41" t="n">
-        <v>3.248750821119513</v>
+        <v>3.151187447016823</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.18533936351485</v>
+        <v>49.59386904772811</v>
       </c>
       <c r="D42" t="n">
-        <v>3.643758477800158</v>
+        <v>2.958712864003307</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.94373143728399</v>
+        <v>48.48824090674378</v>
       </c>
       <c r="D43" t="n">
-        <v>3.614696166706287</v>
+        <v>3.701142896903126</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.70739717913251</v>
+        <v>47.87409003211624</v>
       </c>
       <c r="D44" t="n">
-        <v>3.798282146261962</v>
+        <v>3.390608843063806</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>45.84012189637516</v>
+        <v>47.04058064047594</v>
       </c>
       <c r="D45" t="n">
-        <v>3.679117462155061</v>
+        <v>3.127602159014371</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.34344817538496</v>
+        <v>45.7666577478784</v>
       </c>
       <c r="D46" t="n">
-        <v>3.861643052817835</v>
+        <v>3.253508064547152</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.90943592409177</v>
+        <v>44.81266290203737</v>
       </c>
       <c r="D47" t="n">
-        <v>3.189247434438283</v>
+        <v>3.467403380339392</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.94085828284983</v>
+        <v>43.61053126370479</v>
       </c>
       <c r="D48" t="n">
-        <v>3.86078923311134</v>
+        <v>3.204407648228075</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.2215435829191</v>
+        <v>42.67431034668289</v>
       </c>
       <c r="D49" t="n">
-        <v>3.79724060966126</v>
+        <v>3.716681231219947</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.7700952290281</v>
+        <v>41.55779002616263</v>
       </c>
       <c r="D50" t="n">
-        <v>3.013079369700588</v>
+        <v>3.888453651528712</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.99786699180242</v>
+        <v>41.13940674561417</v>
       </c>
       <c r="D51" t="n">
-        <v>3.398422375077098</v>
+        <v>3.457752764920325</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.9339655779264</v>
+        <v>39.22505857066096</v>
       </c>
       <c r="D52" t="n">
-        <v>3.45611103709056</v>
+        <v>4.179404668526442</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.59958989456978</v>
+        <v>39.31651039919797</v>
       </c>
       <c r="D53" t="n">
-        <v>3.330090258292344</v>
+        <v>3.497786258559014</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.7998449870158</v>
+        <v>38.13325077872705</v>
       </c>
       <c r="D54" t="n">
-        <v>3.682895500332135</v>
+        <v>3.528699636169333</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.80788663098577</v>
+        <v>36.84354586898994</v>
       </c>
       <c r="D55" t="n">
-        <v>3.689775716841416</v>
+        <v>3.975819892549323</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.45966387791037</v>
+        <v>35.87329993353058</v>
       </c>
       <c r="D56" t="n">
-        <v>3.744018890489614</v>
+        <v>3.985244467700205</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.03117474920432</v>
+        <v>35.45933712233793</v>
       </c>
       <c r="D57" t="n">
-        <v>3.269624203821881</v>
+        <v>3.734015519012535</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.79372033372699</v>
+        <v>33.33085628738186</v>
       </c>
       <c r="D58" t="n">
-        <v>3.94300952500765</v>
+        <v>4.003600341640457</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.7069407311292</v>
+        <v>32.54532154561218</v>
       </c>
       <c r="D59" t="n">
-        <v>3.871731757621542</v>
+        <v>3.818489420973987</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.83484036881159</v>
+        <v>32.16432056932526</v>
       </c>
       <c r="D60" t="n">
-        <v>4.269147430573192</v>
+        <v>3.967251799233426</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.85410209814547</v>
+        <v>30.91479449687391</v>
       </c>
       <c r="D61" t="n">
-        <v>3.750009657474733</v>
+        <v>4.049033352288705</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.52370592142839</v>
+        <v>29.86759177357462</v>
       </c>
       <c r="D62" t="n">
-        <v>4.29759261981937</v>
+        <v>4.368502233881975</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.69533898927379</v>
+        <v>28.38406204520214</v>
       </c>
       <c r="D63" t="n">
-        <v>3.720488567540941</v>
+        <v>3.849442269899688</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.0781198296102</v>
+        <v>27.22706476238024</v>
       </c>
       <c r="D64" t="n">
-        <v>4.20584483537933</v>
+        <v>4.072558548252149</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.22308678517741</v>
+        <v>26.66356168191212</v>
       </c>
       <c r="D65" t="n">
-        <v>3.649511190913171</v>
+        <v>4.619081983428701</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>26.12576308163893</v>
+        <v>25.88340360878325</v>
       </c>
       <c r="D66" t="n">
-        <v>4.546593536720149</v>
+        <v>4.498302094327097</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.65883406758394</v>
+        <v>24.43783997337569</v>
       </c>
       <c r="D67" t="n">
-        <v>4.1554640931405</v>
+        <v>4.301824231219865</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.93722529685623</v>
+        <v>23.59846313977427</v>
       </c>
       <c r="D68" t="n">
-        <v>4.191174833208525</v>
+        <v>4.200377164272699</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.81062363321893</v>
+        <v>23.03411941371855</v>
       </c>
       <c r="D69" t="n">
-        <v>4.26838634642568</v>
+        <v>4.43194836418854</v>
       </c>
     </row>
   </sheetData>
